--- a/server/docs/ElkeidData.xlsx
+++ b/server/docs/ElkeidData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="449">
   <si>
     <t>DataType</t>
   </si>
@@ -765,6 +765,9 @@
     <t>nproc</t>
   </si>
   <si>
+    <t>rgid</t>
+  </si>
+  <si>
     <t>fsuid</t>
   </si>
   <si>
@@ -786,6 +789,9 @@
     <t>load_5</t>
   </si>
   <si>
+    <t>egid</t>
+  </si>
+  <si>
     <t>eusername</t>
   </si>
   <si>
@@ -804,6 +810,9 @@
     <t>running_procs</t>
   </si>
   <si>
+    <t>sgid</t>
+  </si>
+  <si>
     <t>fsusername</t>
   </si>
   <si>
@@ -813,10 +822,16 @@
     <t>total_procs</t>
   </si>
   <si>
+    <t>fuid</t>
+  </si>
+  <si>
     <t>nspid</t>
   </si>
   <si>
     <t>boot_at</t>
+  </si>
+  <si>
+    <t>fgid</t>
   </si>
   <si>
     <t>nspgid</t>
@@ -1355,10 +1370,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1423,14 +1438,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1439,7 +1446,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1453,28 +1468,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1483,16 +1476,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1507,30 +1500,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1543,9 +1534,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1553,7 +1544,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1569,6 +1560,30 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1637,7 +1652,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1649,13 +1706,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1667,49 +1718,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1727,31 +1742,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1769,7 +1760,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1781,19 +1802,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1805,7 +1814,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1817,7 +1832,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1960,26 +1975,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1995,32 +2001,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2042,157 +2022,192 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2711,7 +2726,7 @@
   <dimension ref="A1:BC201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AN38" sqref="AN38"/>
+      <selection activeCell="AM27" sqref="AM27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.55"/>
@@ -5352,7 +5367,9 @@
         <v>208</v>
       </c>
       <c r="AN19" s="18"/>
-      <c r="AO19" s="18"/>
+      <c r="AO19" s="52" t="s">
+        <v>154</v>
+      </c>
       <c r="AP19" s="18"/>
       <c r="AQ19" s="18"/>
       <c r="AR19" s="44" t="s">
@@ -5471,7 +5488,9 @@
         <v>223</v>
       </c>
       <c r="AN20" s="18"/>
-      <c r="AO20" s="18"/>
+      <c r="AO20" s="52" t="s">
+        <v>122</v>
+      </c>
       <c r="AP20" s="18"/>
       <c r="AQ20" s="18"/>
       <c r="AR20" s="44" t="s">
@@ -5588,7 +5607,9 @@
       <c r="AL21" s="18"/>
       <c r="AM21" s="18"/>
       <c r="AN21" s="18"/>
-      <c r="AO21" s="18"/>
+      <c r="AO21" s="52" t="s">
+        <v>142</v>
+      </c>
       <c r="AP21" s="18"/>
       <c r="AQ21" s="18"/>
       <c r="AR21" s="44" t="s">
@@ -5705,7 +5726,9 @@
       <c r="AL22" s="18"/>
       <c r="AM22" s="18"/>
       <c r="AN22" s="18"/>
-      <c r="AO22" s="18"/>
+      <c r="AO22" s="52" t="s">
+        <v>77</v>
+      </c>
       <c r="AP22" s="18"/>
       <c r="AQ22" s="18"/>
       <c r="AR22" s="44" t="s">
@@ -5819,7 +5842,9 @@
       <c r="AL23" s="18"/>
       <c r="AM23" s="18"/>
       <c r="AN23" s="18"/>
-      <c r="AO23" s="18"/>
+      <c r="AO23" s="52" t="s">
+        <v>94</v>
+      </c>
       <c r="AP23" s="18"/>
       <c r="AQ23" s="18"/>
       <c r="AR23" s="44" t="s">
@@ -5924,7 +5949,9 @@
       <c r="AL24" s="18"/>
       <c r="AM24" s="18"/>
       <c r="AN24" s="18"/>
-      <c r="AO24" s="18"/>
+      <c r="AO24" s="52" t="s">
+        <v>241</v>
+      </c>
       <c r="AP24" s="18"/>
       <c r="AQ24" s="18"/>
       <c r="AR24" s="44" t="s">
@@ -6027,11 +6054,13 @@
       <c r="AL25" s="18"/>
       <c r="AM25" s="18"/>
       <c r="AN25" s="18"/>
-      <c r="AO25" s="18"/>
+      <c r="AO25" s="52" t="s">
+        <v>249</v>
+      </c>
       <c r="AP25" s="18"/>
       <c r="AQ25" s="18"/>
       <c r="AR25" s="44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AS25" s="18"/>
       <c r="AT25" s="18"/>
@@ -6062,7 +6091,7 @@
       </c>
       <c r="J26" s="18"/>
       <c r="K26" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L26" s="25" t="s">
         <v>200</v>
@@ -6086,7 +6115,7 @@
         <v>216</v>
       </c>
       <c r="X26" s="25" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Y26" s="18"/>
       <c r="Z26" s="18"/>
@@ -6102,17 +6131,19 @@
       <c r="AH26" s="18"/>
       <c r="AI26" s="18"/>
       <c r="AJ26" s="44" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AK26" s="18"/>
       <c r="AL26" s="18"/>
       <c r="AM26" s="18"/>
       <c r="AN26" s="18"/>
-      <c r="AO26" s="18"/>
+      <c r="AO26" s="52" t="s">
+        <v>244</v>
+      </c>
       <c r="AP26" s="18"/>
       <c r="AQ26" s="18"/>
       <c r="AR26" s="44" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AS26" s="18"/>
       <c r="AT26" s="18"/>
@@ -6136,7 +6167,7 @@
         <v>200</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J27" s="18"/>
       <c r="N27" s="25" t="s">
@@ -6173,17 +6204,19 @@
       <c r="AH27" s="18"/>
       <c r="AI27" s="18"/>
       <c r="AJ27" s="44" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK27" s="18"/>
       <c r="AL27" s="18"/>
       <c r="AM27" s="18"/>
       <c r="AN27" s="18"/>
-      <c r="AO27" s="18"/>
+      <c r="AO27" s="52" t="s">
+        <v>257</v>
+      </c>
       <c r="AP27" s="18"/>
       <c r="AQ27" s="18"/>
       <c r="AR27" s="44" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AS27" s="18"/>
       <c r="AT27" s="18"/>
@@ -6206,7 +6239,7 @@
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
       <c r="N28" s="25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
@@ -6226,24 +6259,26 @@
       <c r="AB28" s="18"/>
       <c r="AC28" s="18"/>
       <c r="AE28" s="25" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AF28" s="18"/>
       <c r="AG28" s="18"/>
       <c r="AH28" s="18"/>
       <c r="AI28" s="18"/>
       <c r="AJ28" s="44" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AK28" s="18"/>
       <c r="AL28" s="18"/>
       <c r="AM28" s="18"/>
       <c r="AN28" s="18"/>
-      <c r="AO28" s="18"/>
+      <c r="AO28" s="52" t="s">
+        <v>247</v>
+      </c>
       <c r="AP28" s="18"/>
       <c r="AQ28" s="18"/>
       <c r="AR28" s="44" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AS28" s="18"/>
       <c r="AT28" s="18"/>
@@ -6262,7 +6297,7 @@
       </c>
       <c r="H29" s="18"/>
       <c r="I29" s="25" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
@@ -6292,17 +6327,19 @@
       <c r="AH29" s="18"/>
       <c r="AI29" s="18"/>
       <c r="AJ29" s="44" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AK29" s="18"/>
       <c r="AL29" s="18"/>
       <c r="AM29" s="18"/>
       <c r="AN29" s="18"/>
-      <c r="AO29" s="18"/>
+      <c r="AO29" s="52" t="s">
+        <v>264</v>
+      </c>
       <c r="AP29" s="18"/>
       <c r="AQ29" s="18"/>
       <c r="AR29" s="44" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AS29" s="18"/>
       <c r="AT29" s="18"/>
@@ -6315,7 +6352,7 @@
       <c r="A30" s="16"/>
       <c r="H30" s="18"/>
       <c r="I30" s="25" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
@@ -6347,17 +6384,19 @@
       <c r="AH30" s="18"/>
       <c r="AI30" s="18"/>
       <c r="AJ30" s="44" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AK30" s="18"/>
       <c r="AL30" s="18"/>
       <c r="AM30" s="18"/>
       <c r="AN30" s="18"/>
-      <c r="AO30" s="18"/>
+      <c r="AO30" s="52" t="s">
+        <v>268</v>
+      </c>
       <c r="AP30" s="18"/>
       <c r="AQ30" s="18"/>
       <c r="AR30" s="44" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AS30" s="18"/>
       <c r="AT30" s="18"/>
@@ -6402,17 +6441,19 @@
       <c r="AH31" s="18"/>
       <c r="AI31" s="18"/>
       <c r="AJ31" s="44" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AK31" s="18"/>
       <c r="AL31" s="18"/>
       <c r="AM31" s="18"/>
       <c r="AN31" s="18"/>
-      <c r="AO31" s="18"/>
+      <c r="AO31" s="52" t="s">
+        <v>271</v>
+      </c>
       <c r="AP31" s="18"/>
       <c r="AQ31" s="18"/>
       <c r="AR31" s="44" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AS31" s="18"/>
       <c r="AT31" s="18"/>
@@ -6431,7 +6472,7 @@
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="25" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
@@ -6445,7 +6486,7 @@
       <c r="S32" s="18"/>
       <c r="U32" s="18"/>
       <c r="V32" s="25" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="W32" s="18"/>
       <c r="X32" s="18"/>
@@ -6461,7 +6502,7 @@
       <c r="AH32" s="18"/>
       <c r="AI32" s="18"/>
       <c r="AJ32" s="44" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AK32" s="18"/>
       <c r="AL32" s="18"/>
@@ -6471,7 +6512,7 @@
       <c r="AP32" s="18"/>
       <c r="AQ32" s="18"/>
       <c r="AR32" s="44" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AS32" s="18"/>
       <c r="AT32" s="18"/>
@@ -6516,7 +6557,7 @@
       <c r="AH33" s="18"/>
       <c r="AI33" s="18"/>
       <c r="AJ33" s="44" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AK33" s="18"/>
       <c r="AL33" s="18"/>
@@ -6526,7 +6567,7 @@
       <c r="AP33" s="18"/>
       <c r="AQ33" s="18"/>
       <c r="AR33" s="44" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AS33" s="18"/>
       <c r="AT33" s="18"/>
@@ -6581,7 +6622,7 @@
       <c r="AP34" s="18"/>
       <c r="AQ34" s="18"/>
       <c r="AR34" s="44" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AS34" s="18"/>
       <c r="AT34" s="18"/>
@@ -6637,7 +6678,7 @@
       <c r="AP35" s="18"/>
       <c r="AQ35" s="18"/>
       <c r="AR35" s="44" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AS35" s="18"/>
       <c r="AT35" s="18"/>
@@ -6693,7 +6734,7 @@
       <c r="AP36" s="18"/>
       <c r="AQ36" s="18"/>
       <c r="AR36" s="44" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AS36" s="18"/>
       <c r="AT36" s="18"/>
@@ -6708,7 +6749,7 @@
         <v>117</v>
       </c>
       <c r="AR37" s="44" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" ht="14.5" spans="1:44">
@@ -6720,19 +6761,19 @@
     <row r="39" ht="14.5" spans="1:44">
       <c r="A39" s="19"/>
       <c r="AR39" s="44" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" ht="14.5" spans="1:44">
       <c r="A40" s="19"/>
       <c r="AR40" s="44" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" ht="14.5" spans="1:44">
       <c r="A41" s="19"/>
       <c r="AR41" s="44" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" ht="14.5" spans="1:1">
@@ -7251,66 +7292,66 @@
   <sheetData>
     <row r="1" ht="15.15" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" ht="15.15" spans="1:5">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" ht="15.15" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" ht="15.15" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" ht="15.15" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" ht="15.15" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" ht="15.15" spans="1:5">
@@ -7320,7 +7361,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" ht="15.15" spans="1:5">
@@ -7330,45 +7371,45 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="4" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" ht="15.15" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" ht="15.15" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" ht="15.15" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" ht="15.15" spans="1:2">
       <c r="A12" s="3"/>
       <c r="B12" s="5" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" ht="15.15" spans="1:5">
@@ -7376,13 +7417,13 @@
         <v>51</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" ht="15.15" spans="1:5">
@@ -7392,85 +7433,85 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" ht="15.15" spans="1:2">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" ht="15.15" spans="1:2">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17" ht="15.15" spans="1:2">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" ht="15.15" spans="1:2">
       <c r="A18" s="3"/>
       <c r="B18" s="5" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" ht="15.15" spans="1:2">
       <c r="A19" s="3"/>
       <c r="B19" s="5" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" ht="15.15" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" ht="15.15" spans="1:2">
       <c r="A21" s="3"/>
       <c r="B21" s="5" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" ht="17.15" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" ht="15.15" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" ht="15.15" spans="1:2">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" ht="15.15" spans="1:2">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" ht="15.15" spans="1:2">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -7506,13 +7547,13 @@
   <sheetData>
     <row r="1" ht="14.5" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -7531,13 +7572,13 @@
     </row>
     <row r="2" ht="14.5" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -7556,13 +7597,13 @@
     </row>
     <row r="3" ht="14.5" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -7584,10 +7625,10 @@
         <v>107</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -7609,10 +7650,10 @@
         <v>72</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -7634,10 +7675,10 @@
         <v>116</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -7659,10 +7700,10 @@
         <v>202</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -7684,10 +7725,10 @@
         <v>198</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -7706,13 +7747,13 @@
     </row>
     <row r="9" ht="14.5" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -7734,10 +7775,10 @@
         <v>199</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7756,13 +7797,13 @@
     </row>
     <row r="11" ht="14.5" spans="1:17">
       <c r="A11" s="2" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -7781,13 +7822,13 @@
     </row>
     <row r="12" ht="14.5" spans="1:17">
       <c r="A12" s="2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -7809,10 +7850,10 @@
         <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -7834,10 +7875,10 @@
         <v>192</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -7859,10 +7900,10 @@
         <v>75</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -7884,10 +7925,10 @@
         <v>116</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -7906,13 +7947,13 @@
     </row>
     <row r="17" ht="14.5" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -7931,13 +7972,13 @@
     </row>
     <row r="18" ht="14.5" spans="1:17">
       <c r="A18" s="2" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -7959,10 +8000,10 @@
         <v>66</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -7981,13 +8022,13 @@
     </row>
     <row r="20" ht="14.5" spans="1:17">
       <c r="A20" s="2" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -8006,13 +8047,13 @@
     </row>
     <row r="21" ht="14.5" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -8034,10 +8075,10 @@
         <v>122</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -8059,10 +8100,10 @@
         <v>216</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -8081,13 +8122,13 @@
     </row>
     <row r="24" ht="14.5" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -8106,13 +8147,13 @@
     </row>
     <row r="25" ht="14.5" spans="1:17">
       <c r="A25" s="2" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -8131,13 +8172,13 @@
     </row>
     <row r="26" ht="14.5" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -8159,10 +8200,10 @@
         <v>203</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -8184,10 +8225,10 @@
         <v>192</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -8206,13 +8247,13 @@
     </row>
     <row r="29" ht="14.5" spans="1:17">
       <c r="A29" s="2" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -8234,10 +8275,10 @@
         <v>128</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -8259,10 +8300,10 @@
         <v>118</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -8281,13 +8322,13 @@
     </row>
     <row r="32" ht="14.5" spans="1:17">
       <c r="A32" s="2" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -8306,13 +8347,13 @@
     </row>
     <row r="33" ht="14.5" spans="1:17">
       <c r="A33" s="2" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -8334,10 +8375,10 @@
         <v>83</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -8356,13 +8397,13 @@
     </row>
     <row r="35" ht="14.5" spans="1:17">
       <c r="A35" s="2" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -8384,10 +8425,10 @@
         <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -8406,13 +8447,13 @@
     </row>
     <row r="37" ht="14.5" spans="1:17">
       <c r="A37" s="2" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -8434,10 +8475,10 @@
         <v>147</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -8459,10 +8500,10 @@
         <v>94</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -8484,10 +8525,10 @@
         <v>234</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -8509,10 +8550,10 @@
         <v>227</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -8534,10 +8575,10 @@
         <v>200</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -8559,10 +8600,10 @@
         <v>76</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -8584,10 +8625,10 @@
         <v>71</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -8609,10 +8650,10 @@
         <v>133</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -8634,10 +8675,10 @@
         <v>228</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -8656,13 +8697,13 @@
     </row>
     <row r="47" ht="14.5" spans="1:17">
       <c r="A47" s="2" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -8681,13 +8722,13 @@
     </row>
     <row r="48" ht="14.5" spans="1:17">
       <c r="A48" s="2" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -8706,13 +8747,13 @@
     </row>
     <row r="49" ht="14.5" spans="1:17">
       <c r="A49" s="2" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -8734,10 +8775,10 @@
         <v>196</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -8756,13 +8797,13 @@
     </row>
     <row r="51" ht="14.5" spans="1:17">
       <c r="A51" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -8784,10 +8825,10 @@
         <v>201</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -8809,10 +8850,10 @@
         <v>204</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -8834,10 +8875,10 @@
         <v>78</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -8856,13 +8897,13 @@
     </row>
     <row r="55" ht="14.5" spans="1:17">
       <c r="A55" s="2" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -8881,13 +8922,13 @@
     </row>
     <row r="56" ht="14.5" spans="1:17">
       <c r="A56" s="2" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -8906,13 +8947,13 @@
     </row>
     <row r="57" ht="14.5" spans="1:17">
       <c r="A57" s="2" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -8934,10 +8975,10 @@
         <v>219</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -8956,13 +8997,13 @@
     </row>
     <row r="59" ht="14.5" spans="1:17">
       <c r="A59" s="2" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -8981,13 +9022,13 @@
     </row>
     <row r="60" ht="14.5" spans="1:17">
       <c r="A60" s="2" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -9009,10 +9050,10 @@
         <v>63</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -9031,13 +9072,13 @@
     </row>
     <row r="62" ht="14.5" spans="1:17">
       <c r="A62" s="2" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -9059,10 +9100,10 @@
         <v>220</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -9081,13 +9122,13 @@
     </row>
     <row r="64" ht="14.5" spans="1:17">
       <c r="A64" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -9109,10 +9150,10 @@
         <v>243</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -9131,13 +9172,13 @@
     </row>
     <row r="66" ht="14.5" spans="1:17">
       <c r="A66" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -9156,13 +9197,13 @@
     </row>
     <row r="67" ht="14.5" spans="1:17">
       <c r="A67" s="2" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -9184,10 +9225,10 @@
         <v>161</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -9209,10 +9250,10 @@
         <v>75</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -9234,10 +9275,10 @@
         <v>203</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -9259,10 +9300,10 @@
         <v>236</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -9284,10 +9325,10 @@
         <v>168</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -9309,10 +9350,10 @@
         <v>153</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -9334,10 +9375,10 @@
         <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -9359,10 +9400,10 @@
         <v>206</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -9384,10 +9425,10 @@
         <v>232</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -9409,10 +9450,10 @@
         <v>237</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -9431,13 +9472,13 @@
     </row>
     <row r="78" ht="14.5" spans="1:17">
       <c r="A78" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -9459,10 +9500,10 @@
         <v>218</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -9484,10 +9525,10 @@
         <v>218</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -9509,10 +9550,10 @@
         <v>65</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -9534,10 +9575,10 @@
         <v>93</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -9559,10 +9600,10 @@
         <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -9584,10 +9625,10 @@
         <v>197</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -9606,13 +9647,13 @@
     </row>
     <row r="85" ht="14.5" spans="1:17">
       <c r="A85" s="2" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -9634,10 +9675,10 @@
         <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -9659,10 +9700,10 @@
         <v>215</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -9684,10 +9725,10 @@
         <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -9706,13 +9747,13 @@
     </row>
     <row r="89" ht="14.5" spans="1:17">
       <c r="A89" s="2" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -9731,13 +9772,13 @@
     </row>
     <row r="90" ht="14.5" spans="1:17">
       <c r="A90" s="2" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
